--- a/data/testcase_datas.xlsx
+++ b/data/testcase_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26670" windowHeight="10935"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="testcase01" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -36,6 +36,9 @@
     <t>请求方式</t>
   </si>
   <si>
+    <t>请求头部信息</t>
+  </si>
+  <si>
     <t>请求地址</t>
   </si>
   <si>
@@ -66,7 +69,7 @@
     <t>/cgi-bin/token</t>
   </si>
   <si>
-    <t>{'"grant_type":"client_credential","appid":"wxf26ad2ae7497289a","secret":"177931a321a1f39a47a1ef202d8a3497"}</t>
+    <t>{"grant_type":"client_credential","appid":"wxf26ad2ae7497289a","secret":"177931a321a1f39a47a1ef202d8a3497"}</t>
   </si>
   <si>
     <t>api_case_02</t>
@@ -160,8 +163,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -187,26 +190,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -215,6 +242,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -224,38 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,6 +280,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -293,7 +319,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,29 +330,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,31 +348,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,144 +529,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +539,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -557,26 +610,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -587,7 +620,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,36 +639,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,133 +659,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1170,12 +1173,13 @@
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="22.125" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="44.125" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,165 +1207,174 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:11">
+    <row r="2" ht="30" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
-    <row r="3" ht="22" customHeight="1" spans="1:11">
+    <row r="3" ht="22" customHeight="1" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
-    <row r="4" ht="22" customHeight="1" spans="1:11">
+    <row r="4" ht="22" customHeight="1" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:11">
+    <row r="5" ht="27" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:11">
+    <row r="6" ht="30" customHeight="1" spans="1:12">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="5"/>
     </row>
-    <row r="7" ht="37" customHeight="1" spans="1:9">
+    <row r="7" ht="37" customHeight="1" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="47" customHeight="1"/>

--- a/data/testcase_datas.xlsx
+++ b/data/testcase_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="19515" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="testcase01" sheetId="1" r:id="rId1"/>
@@ -163,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -190,15 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,59 +205,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -280,6 +219,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -287,16 +242,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,24 +325,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,108 +348,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,78 +529,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,17 +539,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,6 +562,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,32 +623,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,133 +659,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>

--- a/data/testcase_datas.xlsx
+++ b/data/testcase_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19515" windowHeight="10935"/>
+    <workbookView windowWidth="24060" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="testcase01" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -48,6 +48,15 @@
     <t>请求参数（post）</t>
   </si>
   <si>
+    <t>取值方式</t>
+  </si>
+  <si>
+    <t>取值代码</t>
+  </si>
+  <si>
+    <t>取值变两</t>
+  </si>
+  <si>
     <t>api_case_01</t>
   </si>
   <si>
@@ -72,10 +81,19 @@
     <t>{"grant_type":"client_credential","appid":"wxf26ad2ae7497289a","secret":"177931a321a1f39a47a1ef202d8a3497"}</t>
   </si>
   <si>
+    <t>正则取值</t>
+  </si>
+  <si>
+    <t>$access_token</t>
+  </si>
+  <si>
     <t>api_case_02</t>
   </si>
   <si>
     <t>测试能否创建标签接口测试</t>
+  </si>
+  <si>
+    <t>token</t>
   </si>
   <si>
     <t>step02</t>
@@ -163,10 +181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -190,7 +208,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +238,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,9 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,89 +268,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,9 +290,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,43 +366,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,139 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +557,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,9 +601,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,52 +649,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,137 +677,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,9 +824,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1177,9 +1192,10 @@
     <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="44.125" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1209,173 +1225,208 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="22" customHeight="1" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" ht="22" customHeight="1" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="5"/>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:12">
+    <row r="5" ht="27" customHeight="1" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:12">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" ht="37" customHeight="1" spans="1:10">
+    <row r="7" ht="37" customHeight="1" spans="1:12">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" ht="47" customHeight="1"/>
   </sheetData>
@@ -1387,6 +1438,11 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C7"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7">
+      <formula1>"jsonpath取值,正则取值"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
